--- a/shoeStoreAPI/src/main/resources/reports/BaoCaoNhapHang.xlsx
+++ b/shoeStoreAPI/src/main/resources/reports/BaoCaoNhapHang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FITHOU\DATN\Code\quanghungglasses-api\src\main\resources\static\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\project\shoeStoreAPI\src\main\resources\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99696D29-26A7-48AD-9602-BDA5ED3140DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D5350-DF82-45B2-9EB0-62C0C523F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
   <si>
     <t>Mã SP</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>Tiền Nhập</t>
+  </si>
+  <si>
+    <t>Kích cỡ</t>
+  </si>
+  <si>
+    <t>Màu sắc</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Số lượng nhập</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -418,23 +436,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -443,30 +463,34 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -480,17 +504,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -500,7 +524,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -536,17 +560,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -556,7 +580,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -592,17 +616,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -612,7 +636,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -648,17 +672,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -668,7 +692,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -704,17 +728,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -724,7 +748,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -760,17 +784,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -780,7 +804,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -817,17 +841,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,7 +861,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -873,17 +897,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -893,7 +917,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -929,17 +953,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -949,7 +973,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -985,17 +1009,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1029,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1041,17 +1065,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1085,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
